--- a/app/src/main/assets/hint/en.xlsx
+++ b/app/src/main/assets/hint/en.xlsx
@@ -1,30 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29012"/>
-  <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C0BA3A4-EB7E-4B46-AD00-441D6FDC48AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -33,16 +22,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>mode</t>
-  </si>
-  <si>
-    <t>hint</t>
-  </si>
-  <si>
-    <t>quickplay</t>
-  </si>
-  <si>
-    <t>Welcome to the  This Mode ! This game helps you practice adding numbers with clear spoken questions.
+    <t xml:space="preserve">mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quickplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to the  This Mode ! This game helps you practice adding numbers with clear spoken questions.
 Objective of the Game
 You will hear or see a story problem . Your task is to find the total sum of two numbers and enter the correct answer.
 Gameplay Instructions
@@ -57,7 +46,7 @@
 Buttons are labeled for screen readers."</t>
   </si>
   <si>
-    <t>shake</t>
+    <t xml:space="preserve">shake</t>
   </si>
   <si>
     <t xml:space="preserve">This game tests your ability to shake your device a specified number of times as fast as possible while listening to voice instructions and receiving feedback.
@@ -111,7 +100,7 @@
 </t>
   </si>
   <si>
-    <t>tap</t>
+    <t xml:space="preserve">tap</t>
   </si>
   <si>
     <t xml:space="preserve">This game challenges you to tap the screen a specific number of times as indicated by a simple math expression. You’ll receive spoken instructions and audio feedback throughout.
@@ -162,10 +151,10 @@
 </t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>How to Play:
+    <t xml:space="preserve">day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to Play:
 Welcome to the day guessing game!
 Here, you will hear a day of the week, like Monday or Friday, and a number telling you how many days to count forward.
 Your job is to figure out which day comes after adding those days.
@@ -175,10 +164,10 @@
 Try your best to answer as many questions as you can and watch yourself become a day master! Have fun, keep guessing, and enjoy learning the days of the week in a super fun way!</t>
   </si>
   <si>
-    <t>number line</t>
-  </si>
-  <si>
-    <t>Welcome to the Number Line Game! This game helps you practice addition and subtraction by moving along a number line using simple voice commands and button controls. Here’s a detailed guide to help you play:
+    <t xml:space="preserve">numberline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to the Number Line Game! This game helps you practice addition and subtraction by moving along a number line using simple voice commands and button controls. Here’s a detailed guide to help you play:
 Objective of the Game
 Your goal is to start at a certain position on an imaginary number line and move either left (subtract) or right (add) by a certain number of units to reach the correct final position.
 Game Setup
@@ -219,10 +208,10 @@
 Confused about position: Tap the question text to hear your current task again.</t>
   </si>
   <si>
-    <t>mind</t>
-  </si>
-  <si>
-    <t>Welcome to the Mental Calculation Game! This game tests your quick math skills by asking you to solve arithmetic problems spoken aloud. Here is a step-by-step guide to help you enjoy and succeed in the game using voice feedback and accessible controls.
+    <t xml:space="preserve">mental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to the Mental Calculation Game! This game tests your quick math skills by asking you to solve arithmetic problems spoken aloud. Here is a step-by-step guide to help you enjoy and succeed in the game using voice feedback and accessible controls.
 Objective of the Game
 Your goal is to listen carefully to the arithmetic problem spoken by the game and then enter the correct answer using the keyboard. The game will tell you if your answer is right or wrong, and you will advance through a series of questions.
 Game Setup
@@ -262,10 +251,10 @@
 Invalid Answer Warning: Enter only numbers without spaces or symbols. If you make a mistake, clear the input and try again.</t>
   </si>
   <si>
-    <t>angle</t>
-  </si>
-  <si>
-    <t>Welcome to the Angle Game, an exciting challenge where you will be asked to turn to specific angles using your device’s rotation sensors. Here's a detailed step-by-step guide to help you play the game:
+    <t xml:space="preserve">angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to the Angle Game, an exciting challenge where you will be asked to turn to specific angles using your device’s rotation sensors. Here's a detailed step-by-step guide to help you play the game:
 Objective of the Game
 Your goal is to correctly adjust the orientation of your device to match the target angle displayed in the game. You will receive verbal prompts to help guide you in turning the device to the correct angle.
 Game Setup
@@ -321,7 +310,7 @@
 If the device’s sensor isn’t responding well to your movements, try rotating your device slowly and steadily. Avoid sharp, quick turns.</t>
   </si>
   <si>
-    <t>echo</t>
+    <t xml:space="preserve">sterio</t>
   </si>
   <si>
     <t xml:space="preserve">Welcome to the Stereo Number Game! This game helps you practice subtraction using special stereo audio cues and speech. Here’s how to play:
@@ -359,7 +348,7 @@
 </t>
   </si>
   <si>
-    <t>sketch</t>
+    <t xml:space="preserve">drawing</t>
   </si>
   <si>
     <t xml:space="preserve">✏️ Welcome to the Drawing Game
@@ -420,7 +409,7 @@
 </t>
   </si>
   <si>
-    <t>path</t>
+    <t xml:space="preserve">compass</t>
   </si>
   <si>
     <t xml:space="preserve">🧭 Welcome to the Compass Game
@@ -492,7 +481,7 @@
 </t>
   </si>
   <si>
-    <t>touch</t>
+    <t xml:space="preserve">touch</t>
   </si>
   <si>
     <t xml:space="preserve">Welcome to the Touch Screen Game! This game helps you practice basic arithmetic by touching the screen with the correct number of fingers as your answer. Here’s how to play:
@@ -538,14 +527,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -557,7 +564,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -565,451 +572,160 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="0E2841"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="145F82"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="E87331"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="186C24"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="A02B93"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="4EA72E"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="467886"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="96607D"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="225.5703125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="225.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="346.5">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="346.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="409.6">
-      <c r="A3" t="s">
+    <row r="3" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.6">
-      <c r="A4" t="s">
+    <row r="4" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="115.5">
-      <c r="A5" t="s">
+    <row r="5" customFormat="false" ht="115.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="409.6">
-      <c r="A6" t="s">
+    <row r="6" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="409.6">
-      <c r="A7" t="s">
+    <row r="7" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="409.6">
-      <c r="A8" t="s">
+    <row r="8" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="409.6">
-      <c r="A9" t="s">
+    <row r="9" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="409.6">
-      <c r="A10" t="s">
+    <row r="10" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="409.6">
-      <c r="A11" t="s">
+    <row r="11" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="409.6">
-      <c r="A12" t="s">
+    <row r="12" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1017,6 +733,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/app/src/main/assets/hint/en.xlsx
+++ b/app/src/main/assets/hint/en.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t xml:space="preserve">mode</t>
   </si>
@@ -32,79 +32,496 @@
   </si>
   <si>
     <t xml:space="preserve">Quick Play Mode – How to Play
-Objective
-Solve as many math questions as you can. Try to be fast and accurate.
-How It Works
-1. View the Question
-Tap the "Read Question" button to display or hear a new question.
+Example Question:
+Question:
+Tom had 10 apples. Then his friend gave him 3 more.
+How many apples does Tom have now?
+Hint:
+Let’s think about it.
+Tom started with 10 apples. Then he got 3 more.
+We are adding the new apples to the ones he already had.
+So, 10 + 3 = ?
+Try counting up from 10:
+11… 12… 13.
+That means Tom has 13 apples.
+Your Goal
+Try to solve as many math questions as you can.
+Be fast, and try to get the answers right!
+Steps to Play
+1. Read the Question
+A new question will appear or be read out loud.
 2. Enter Your Answer
-Type your answer into the box provided. Take your time, but respond quickly for a higher score.
+Type your answer in the box.
+Take your time to think, but try not to be too slow.
 3. Submit Your Answer
-Tap the "Submit Answer" button when you're ready to check your answer.
-Answer Feedback
+When you're ready, tap the "Submit Answer" button to check your answer.
+What Happens Next
+If Your Answer is Correct
+You’ll hear a happy sound, and the next question will appear.
+If Your Answer is Incorrect
+The phone will gently vibrate to let you know.
+You can try again.
+After Three Incorrect Tries
+If you get the answer wrong three times, the correct answer will be shown automatically.
+Then the game moves on to the next question.
+Ending the Game
+The game ends when all the questions are finished, or if there are too many wrong answers.
+You can always restart the game and try again to get a better score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Mode – How to Play
+Example Question:
+Question:
+Raju took 2 hours to get ready in the morning and 4 hours to study in the afternoon.
+How much time did Raju spend in total?
+Hint:
+We are adding time.
+Raju spent 2 hours + 4 hours.
+So, 2 + 4 = 6 hours total.
+Your Goal
+Solve as many time-related questions as you can before the timer runs out.
+Be quick and accurate to get the best score!
+Steps to Play
+1. Read the Question
+A new question will appear or be read aloud. Each question is about time — like clocks, hours, minutes, or daily routines.
+2. Enter Your Answer
+Type your answer in the box.
+Think carefully about the time involved, but don’t take too long — the clock is ticking!
+3. Submit Your Answer
+Tap the "Submit Answer" button to check if you’re right and move to the next one.
+What Happens Next
 Correct Answer
-You'll hear a success sound, and the next question will appear.
+You’ll hear a happy sound, and the next question will come up.
 Incorrect Answer
-You’ll feel a gentle vibration. You can try again.
+The phone will vibrate gently. You can try again, but time keeps moving.
 Three Incorrect Attempts
-After three incorrect tries, the correct answer will be shown automatically before moving to the next question.
-Hints
-Need help? Tap the "Hint" button to receive a helpful tip or clue based on the question. Hints are designed to support different learning styles.
-Ending the Game
-The game ends when all questions are completed or too many answers are incorrect. You can restart anytime to improve your score.
+If you answer wrong three times, the correct answer will be shown.
+Then you’ll go to the next question.
+Ending the Game
+The game ends when the timer runs out.
+Try to answer as many time-based questions as possible before then.
+You can always restart and try to beat your score!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency – How to Play
+Example Question:
+Riya had 50 rupees. Her grandmother gave her 30 more.
+How much money does Riya have now?
+Hint:
+We are adding money.
+Riya had 50 rupees + 30 rupees.
+So, 50 + 30 = 80 rupees total.
+Your Goal
+Try to solve as many math questions as you can.
+Be fast, and try to get the answers right!
+Steps to Play
+1. Read the Question
+A new question will appear or be read out loud.
+2. Enter Your Answer
+Type your answer in the box.
+Take your time to think, but try not to be too slow.
+3. Submit Your Answer
+When you're ready, tap the "Submit Answer" button to check your answer.
+What Happens Next
+If Your Answer is Correct
+You’ll hear a happy sound, and the next question will appear.
+If Your Answer is Incorrect
+The phone will gently vibrate to let you know.
+You can try again.
+After Three Incorrect Tries
+If you get the answer wrong three times, the correct answer will be shown automatically.
+Then the game moves on to the next question.
+Ending the Game
+The game ends when all the questions are finished, or if there are too many wrong answers.
+You can always restart the game and try again to get a better score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance – How to Play
+Example Question:
+A dog ran 3 kilometers in the morning and 5 kilometers in the evening.
+How far did the dog run in total?
+Hint:
+We are adding distance.
+3 km + 5 km = 8 kilometers total.
+Your Goal
+Try to solve as many math questions as you can.
+Be fast, and try to get the answers right!
+Steps to Play
+1. Read the Question
+A new question will appear or be read out loud.
+2. Enter Your Answer
+Type your answer in the box.
+Take your time to think, but try not to be too slow.
+3. Submit Your Answer
+When you're ready, tap the "Submit Answer" button to check your answer.
+What Happens Next
+If Your Answer is Correct
+You’ll hear a happy sound, and the next question will appear.
+If Your Answer is Incorrect
+The phone will gently vibrate to let you know.
+You can try again.
+After Three Incorrect Tries
+If you get the answer wrong three times, the correct answer will be shown automatically.
+Then the game moves on to the next question.
+Ending the Game
+The game ends when all the questions are finished, or if there are too many wrong answers.
+You can always restart the game and try again to get a better score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addition – How to Play
+Example Question:
+Sara has 12 pencils. Her friend gave her 7 more.
+How many pencils does she have now?
+Hint:
+We are adding.
+12 + 7 = 19 pencils total.
+Your Goal
+Try to solve as many math questions as you can.
+Be fast, and try to get the answers right!
+Steps to Play
+1. Read the Question
+A new question will appear or be read out loud.
+2. Enter Your Answer
+Type your answer in the box.
+Take your time to think, but try not to be too slow.
+3. Submit Your Answer
+When you're ready, tap the "Submit Answer" button to check your answer.
+What Happens Next
+If Your Answer is Correct
+You’ll hear a happy sound, and the next question will appear.
+If Your Answer is Incorrect
+The phone will gently vibrate to let you know.
+You can try again.
+After Three Incorrect Tries
+If you get the answer wrong three times, the correct answer will be shown automatically.
+Then the game moves on to the next question.
+Ending the Game
+The game ends when all the questions are finished, or if there are too many wrong answers.
+You can always restart the game and try again to get a better score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subtraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subtraction – How to Play
+Example Question:
+A shopkeeper had 20 candies. He sold 8.
+How many candies are left?
+Hint:
+We are subtracting.
+20 - 8 = 12 candies left.
+Your Goal
+Try to solve as many math questions as you can.
+Be fast, and try to get the answers right!
+Steps to Play
+1. Read the Question
+Tap the "Read Question" button.
+A new question will appear or be read out loud.
+2. Enter Your Answer
+Type your answer in the box.
+Take your time to think, but try not to be too slow.
+3. Submit Your Answer
+When you're ready, tap the "Submit Answer" button to check your answer.
+What Happens Next
+If Your Answer is Correct
+You’ll hear a happy sound, and the next question will appear.
+If Your Answer is Incorrect
+The phone will gently vibrate to let you know.
+You can try again.
+After Three Incorrect Tries
+If you get the answer wrong three times, the correct answer will be shown automatically.
+Then the game moves on to the next question.
+Ending the Game
+The game ends when all the questions are finished, or if there are too many wrong answers.
+You can always restart the game and try again to get a better score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiplication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiplication – How to Play
+Example Question:
+There are 4 bags, and each bag has 5 oranges.
+How many oranges are there in total?
+Hint:
+We are multiplying.
+4 × 5 = 20 oranges total.
+Your Goal
+Try to solve as many math questions as you can.
+Be fast, and try to get the answers right!
+Steps to Play
+1. Read the Question
+Tap the "Read Question" button.
+A new question will appear or be read out loud.
+2. Enter Your Answer
+Type your answer in the box.
+Take your time to think, but try not to be too slow.
+3. Submit Your Answer
+When you're ready, tap the "Submit Answer" button to check your answer.
+What Happens Next
+If Your Answer is Correct
+You’ll hear a happy sound, and the next question will appear.
+If Your Answer is Incorrect
+The phone will gently vibrate to let you know.
+You can try again.
+After Three Incorrect Tries
+If you get the answer wrong three times, the correct answer will be shown automatically.
+Then the game moves on to the next question.
+Ending the Game
+The game ends when all the questions are finished, or if there are too many wrong answers.
+You can always restart the game and try again to get a better score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage – How to Play
+Example Question:
+A class has 100 students. 25 of them are girls.
+What percentage of the class are girls?
+Hint:
+We are finding percentage.
+(25 ÷ 100) × 100 = 25 percent..
+Your Goal
+Try to solve as many math questions as you can.
+Be fast, and try to get the answers right!
+Steps to Play
+1. Read the Question
+A new question will appear or be read out loud.
+2. Enter Your Answer
+Type your answer in the box.
+Take your time to think, but try not to be too slow.
+3. Submit Your Answer
+When you're ready, tap the "Submit Answer" button to check your answer.
+What Happens Next
+If Your Answer is Correct
+You’ll hear a happy sound, and the next question will appear.
+If Your Answer is Incorrect
+The phone will gently vibrate to let you know.
+You can try again.
+After Three Incorrect Tries
+If you get the answer wrong three times, the correct answer will be shown automatically.
+Then the game moves on to the next question.
+Ending the Game
+The game ends when all the questions are finished, or if there are too many wrong answers.
+You can always restart the game and try again to get a better score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remainder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remainder – How to Play
+Example Question:
+We have 17 chocolates to divide among 5 friends.
+If each friend gets an equal number, how many chocolates will be left?
+Hint:
+We are finding the remainder.
+17 ÷ 5 = 3 each, with 2 left over.
+Your Goal
+Try to solve as many math questions as you can.
+Be fast, and try to get the answers right!
+Steps to Play
+1. Read the Question
+A new question will appear or be read out loud.
+2. Enter Your Answer
+Type your answer in the box.
+Take your time to think, but try not to be too slow.
+3. Submit Your Answer
+When you're ready, tap the "Submit Answer" button to check your answer.
+What Happens Next
+If Your Answer is Correct
+You’ll hear a happy sound, and the next question will appear.
+If Your Answer is Incorrect
+The phone will gently vibrate to let you know.
+You can try again.
+After Three Incorrect Tries
+If you get the answer wrong three times, the correct answer will be shown automatically.
+Then the game moves on to the next question.
+Ending the Game
+The game ends when all the questions are finished, or if there are too many wrong answers.
+You can always restart the game and try again to get a better score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story – How to Play
+Example Question:
+We have 17 chocolates to divide among 5 friends.
+If each friend gets an equal number, how many chocolates will be left?
+Hint:
+We are finding the remainder.
+17 ÷ 5 = 3 each, with 2 left over.
+Your Goal
+Try to solve as many math questions as you can.
+Be fast, and try to get the answers right!
+Steps to Play
+1. Read the Question
+A new question will appear or be read out loud.
+2. Enter Your Answer
+Type your answer in the box.
+Take your time to think, but try not to be too slow.
+3. Submit Your Answer
+When you're ready, tap the "Submit Answer" button to check your answer.
+What Happens Next
+If Your Answer is Correct
+You’ll hear a happy sound, and the next question will appear.
+If Your Answer is Incorrect
+The phone will gently vibrate to let you know.
+You can try again.
+After Three Incorrect Tries
+If you get the answer wrong three times, the correct answer will be shown automatically.
+Then the game moves on to the next question.
+Ending the Game
+The game ends when all the questions are finished, or if there are too many wrong answers.
+You can always restart the game and try again to get a better score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shake Mode – How to Play
+Example Question
 Question:
-Tom had 10 apples. His friend gave him 3 more apples.
+Tom had 10 apples. Then his friend gave him 3 more.
 How many apples does Tom have now?
-Hint:
-Think about what’s happening in the story:
-Tom already had 10 apples, and he received 3 more.
-To find out the total number of apples, you're adding the new apples to what he already had.
+Hint (How to Solve):
+Let’s solve it step by step.
+Tom started with 10 apples. His friend gave him 3 more.
 That means:
 10 + 3 = ?
-Try to count from 10 and go up 3 steps:
-11... 12... 13.
-So the answer is 13 apples.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subtraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiplication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">division</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remainder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">story</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shake</t>
+Now count up from 10:
+11… 12… 13
+So, the correct answer is 13 apples.
+Objective
+Answer the math questions by shaking your phone to count.
+The number of shakes becomes your answer.
+Instructions
+1. Listen to or Read the Question
+When a question appears, it will also be spoken aloud (if accessibility features like TalkBack are on).
+2. Shake to Input Your Answer
+Each shake adds +1 to your answer.
+Example:
+Shake once → Answer becomes 1
+Shake again → Answer becomes 2
+Shake again → Answer becomes 3
+Keep shaking until you reach the number you want to submit.
+3. Answer Submission
+You do not need to tap any button to submit.
+When you stop shaking for about 3 seconds, your current count is automatically submitted.
+4. What Happens After Submission
+If your answer is correct:
+A sound will play and the next question appears.
+If your answer is incorrect:
+You will get another chance to shake again and try a new answer.
+After 3 wrong attempts:
+The correct answer is shown automatically.
+The game moves on to the next question.
+Ending the Game
+The game finishes after all questions are answered.
+You can restart anytime to try again and improve your score.</t>
   </si>
   <si>
     <t xml:space="preserve">tap</t>
   </si>
   <si>
+    <t xml:space="preserve">Tap Mode – How to Play
+Example Question
+Question:
+Alex had 5 pencils. He bought 4 more.
+How many pencils does he have now?
+Hint (How to Solve):
+Alex started with 5 and bought 4 more:
+5 + 4 = ?
+Count up from 5:
+6… 7… 8… 9
+So, the correct answer is 9 pencils.
+Objective
+Answer the question by tapping the screen to count.
+Each tap adds 1 to your answer.
+Instructions
+1. Listen to or Read the Question
+The question will be shown on screen.
+If TalkBack is enabled, it will be read aloud.
+2. Tap to Count Your Answer
+Each tap increases your answer by +1.
+Example:
+Tap once → Answer becomes 1
+Tap again → Answer becomes 2
+Tap again → Answer becomes 3
+Continue tapping until you reach the answer you want.
+3. Answer Submission
+You do not need to press any “Submit” button.
+When you stop tapping for 3 seconds, the app will automatically submit the number you tapped.
+4. What Happens After Submission
+If your answer is correct:
+A sound will play and the next question will appear.
+If your answer is wrong:
+You get another chance to try again (up to 3 attempts).
+After 3 wrong answers:
+The correct answer will be shown, and the game will continue to the next question.
+Ending the Game
+The game ends after all questions are completed.
+You can restart to improve your score anytime.</t>
+  </si>
+  <si>
     <t xml:space="preserve">day</t>
   </si>
   <si>
+    <t xml:space="preserve">Quick Play Mode – How to Play
+Example Question:
+Question:
+Tom had 10 apples. Then his friend gave him 3 more.
+How many apples does Tom have now?
+Hint:
+Let’s think about it.
+Tom started with 10 apples. Then he got 3 more.
+We are adding the new apples to the ones he already had.
+So, 10 + 3 = ?
+Try counting up from 10:
+11… 12… 13.
+That means Tom has 13 apples.
+Your Goal
+Try to solve as many math questions as you can.
+Be fast, and try to get the answers right!
+Steps to Play
+1. Read the Question
+Tap the "Read Question" button.
+A new question will appear or be read out loud.
+2. Enter Your Answer
+Type your answer in the box.
+Take your time to think, but try not to be too slow.
+3. Submit Your Answer
+When you're ready, tap the "Submit Answer" button to check your answer.
+What Happens Next
+If Your Answer is Correct
+You’ll hear a happy sound, and the next question will appear.
+If Your Answer is Incorrect
+The phone will gently vibrate to let you know.
+You can try again.
+After Three Incorrect Tries
+If you get the answer wrong three times, the correct answer will be shown automatically.
+Then the game moves on to the next question.
+Ending the Game
+The game ends when all the questions are finished, or if there are too many wrong answers.
+You can always restart the game and try again to get a better score</t>
+  </si>
+  <si>
     <t xml:space="preserve">numberline</t>
   </si>
   <si>
@@ -114,16 +531,180 @@
     <t xml:space="preserve">angle</t>
   </si>
   <si>
+    <t xml:space="preserve">Angle Mode – How to Play
+Example Question
+Question:
+Rotate your phone to 270°
+Understanding the Game
+In this game, you are shown a target angle like 0°, 90°, 180°, 270°, 45°, 135°, and so on.
+Your task is to rotate the compass (by rotating your phone) until the arrow matches the given angle.
+Your Goal
+Match the arrow to the target angle as accurately as possible by rotating your phone clockwise or anticlockwise.
+The closer your arrow is to the correct direction, the better.
+How to Play
+Read the Question
+A new angle will appear on screen or be read aloud.
+Example: “Rotate your phone to 180°”
+Rotate Your Phone
+Turn your phone clockwise to go from 0° to 360°
+Or turn it anticlockwise to go from 360° back to 0°
+No Drawing Required
+This is not a drawing game. You only need to rotate your phone to adjust the arrow.
+Auto-Submit
+There is no need to press Submit.
+If your arrow is within ±5° of the correct answer, it will be marked correct automatically after 3 seconds.
+When You're Correct
+A success sound will play.
+The next question will load automatically.</t>
+  </si>
+  <si>
     <t xml:space="preserve">sterio</t>
   </si>
   <si>
+    <t xml:space="preserve">Stereo Mode – How to Play
+Example Question
+Question:
+Subtract second number is 14 from first number is 13.
+Hint:
+Let’s think about it.
+Tom had 10 apples and got 3 more → 10 + 3 = 13
+Now subtract 14 → You get -1
+When the question is read out loud, listen carefully.
+You will hear two numbers — one in each ear if you wear headphone
+For example:
+Left Ear: 14
+Right Ear: 13
+Your Goal
+Solve as many math questions as you can by listening carefully.
+Pick the correct answer by paying attention to which side says it — left or right.
+Steps to Play
+1. Read the Question
+Tap the "Read Question" button.
+The question will be spoken out loud.
+2. Listen to the Answers
+Put on your earphones or earbuds.
+You will hear one number in the left ear and one in the right ear.
+3. Choose the Correct Side
+Tilt your head or tap the side (left or right) that played the correct answer.
+Make sure to listen carefully — the correct answer is only in one ear.
+What Happens Next
+If Your Answer is Correct
+You’ll hear a happy sound, and the next question will begin.
+If Your Answer is Incorrect
+The phone will gently vibrate.
+You can try again and listen more carefully.
+After Three Incorrect Tries
+If you get it wrong three times, the correct answer will be shown.
+Then you’ll move on to the next question.
+Ending the Game
+The game ends when you finish all the questions,
+or if there are too many wrong answers.
+You can restart anytime to practice and improve your score.</t>
+  </si>
+  <si>
     <t xml:space="preserve">drawing</t>
   </si>
   <si>
+    <t xml:space="preserve">Drawing Mode – How to Play
+Example Question:
+Question:
+Draw a rectangle.
+Hint:
+A rectangle has four sides.
+The opposite sides are equal in length.
+It looks like a stretched box.
+Use your finger to draw the shape of a rectangle on the screen.
+Your Goal
+Solve as many shape-based questions as you can.
+Use your finger to draw the correct shape for each question.
+Draw neatly and clearly!
+Steps to Play
+1. Read the Question
+A new question will appear or be read out loud.
+It will ask you to draw a shape — like a square, triangle, or circle.
+2. Draw the Shape
+Use your finger to draw the correct shape directly on the screen.
+3. Submit Your Drawing
+Tap the Next button to move to the next question.
+Currently, there is no automatic checking, but this will be added in the future.
+If you want to try again, tap the Reset button to clear your drawing.
+What Happens Next
+If Your Drawing is Correct
+You’ll hear a happy sound, and the next question will appear.
+Ending the Game
+The game ends when all questions are finished.
+You can restart the game anytime to practice and improve.</t>
+  </si>
+  <si>
     <t xml:space="preserve">compass</t>
   </si>
   <si>
+    <t xml:space="preserve">Compass Mode – How to Play
+Example Question:
+Question:
+You are facing North. Now turn right.
+Which direction are you facing?
+Hint:
+Let’s think about it.
+If you are facing North and turn right, you will now face East.
+So the correct answer is East.
+Your Goal
+Solve as many direction-based questions as you can by turning your body in the correct direction.
+Think fast and turn accurately to win more points!
+Steps to Play
+1. Read the Question
+A new question will appear on the screen or be read out loud.
+Each question asks you to turn in a certain direction, like "Turn left from South" or "Face North."
+2. Turn to the Correct Direction
+Use your body to physically turn and face the correct direction.
+Your device uses the compass to check if you’re correct.
+3. Hold Your Answer
+Once you're facing the direction, hold that position for 3 seconds.
+Your answer will be checked automatically.
+What Happens Next
+If Your Answer is Correct
+You’ll hear a happy sound, and the next question will appear.
+If Your Answer is Incorrect
+No problem! You can try again and learn as you play.
+Ending the Game
+The game ends when you finish all the questions.
+You can always restart the game and try again to beat your score.</t>
+  </si>
+  <si>
     <t xml:space="preserve">touch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Touch Mode – How to Play
+Example Question:
+Question:
+Tom had 2 apples. Then his friend gave him 2 more.
+How many apples does Tom have now?
+Hint:
+We are adding.
+Tom had 2 apples + 2 apples = ?
+Try using your fingers. Start with 2, then add 2 more.
+2 + 2 = 4.
+So, Tom has 4 apples.
+Your Goal
+Solve as many questions as you can using your fingers.
+Be quick and try to get the answers right!
+Steps to Play
+1. Read the Question
+A new question will appear on the screen or be read out loud.
+2. Answer with Your Fingers
+Put the correct number of fingers on the screen to show your answer.
+For example, if the answer is 5, place 5 fingers.
+What Happens Next
+If Your Answer is Correct
+You’ll hear a happy sound, and the next question will appear.
+If Your Answer is Incorrect
+The phone will gently vibrate. You can try again.
+After Three Incorrect Tries
+If you answer wrong three times, the correct answer will be shown.
+Then you’ll move on to the next question.
+Ending the Game
+The game ends when all the questions are finished, or if too many answers are incorrect.
+You can always restart the game and try again to beat your score.</t>
   </si>
 </sst>
 </file>
@@ -231,8 +812,8 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -250,7 +831,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="659.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -258,164 +839,164 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="565.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="552.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="525.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="525.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="525.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="538.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="659.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="525.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="525.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="525.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="847" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="806.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="673.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="673.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="673.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="511.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="686.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="511.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="511.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="552.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
